--- a/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/british_virgin_islands/british_virgin_islands_bank_money_center.xlsx
@@ -590,6 +590,9 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.128</v>
+      </c>
       <c r="G2">
         <v>0</v>
       </c>
@@ -603,19 +606,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>-115.3</v>
+        <v>-24.6</v>
       </c>
       <c r="L2">
-        <v>-0.442270809359417</v>
+        <v>-0.2925089179548157</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.918</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.02004366812227074</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>-0.03731707317073171</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,58 +630,61 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.918</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>94.59999999999999</v>
+        <v>157.3</v>
       </c>
       <c r="V2">
-        <v>0.5088757396449703</v>
+        <v>3.434497816593887</v>
       </c>
       <c r="W2">
-        <v>-0.1544955111885301</v>
+        <v>-0.05023483765570758</v>
       </c>
       <c r="X2">
-        <v>0.1362371917893124</v>
+        <v>0.3414318517837213</v>
       </c>
       <c r="Y2">
-        <v>-0.2907327029778425</v>
+        <v>-0.3916666894394288</v>
       </c>
       <c r="Z2">
-        <v>0.3418568056648308</v>
+        <v>0.1074623051367237</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.08387973450750789</v>
+        <v>0.07543545080714474</v>
       </c>
       <c r="AC2">
-        <v>-0.08387973450750789</v>
+        <v>-0.07543545080714474</v>
       </c>
       <c r="AD2">
-        <v>425.6</v>
+        <v>420.9</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>425.6</v>
+        <v>420.9</v>
       </c>
       <c r="AG2">
-        <v>331</v>
+        <v>263.6</v>
       </c>
       <c r="AH2">
-        <v>0.6959934587080949</v>
+        <v>0.9018641525605313</v>
       </c>
       <c r="AI2">
-        <v>0.438130533250978</v>
+        <v>0.5178395669291339</v>
       </c>
       <c r="AJ2">
-        <v>0.6403559682723932</v>
+        <v>0.8519715578539108</v>
       </c>
       <c r="AK2">
-        <v>0.3775091240875912</v>
+        <v>0.4021357742181541</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -703,6 +709,9 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.128</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
@@ -716,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>-115.3</v>
+        <v>-24.6</v>
       </c>
       <c r="L3">
-        <v>-0.442270809359417</v>
+        <v>-0.2925089179548157</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.918</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02004366812227074</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0.03731707317073171</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -740,58 +749,61 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.918</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>94.59999999999999</v>
+        <v>157.3</v>
       </c>
       <c r="V3">
-        <v>0.5088757396449703</v>
+        <v>3.434497816593887</v>
       </c>
       <c r="W3">
-        <v>-0.1544955111885301</v>
+        <v>-0.05023483765570758</v>
       </c>
       <c r="X3">
-        <v>0.1362371917893124</v>
+        <v>0.3414318517837213</v>
       </c>
       <c r="Y3">
-        <v>-0.2907327029778425</v>
+        <v>-0.3916666894394288</v>
       </c>
       <c r="Z3">
-        <v>0.3418568056648308</v>
+        <v>0.1074623051367237</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.08387973450750789</v>
+        <v>0.07543545080714474</v>
       </c>
       <c r="AC3">
-        <v>-0.08387973450750789</v>
+        <v>-0.07543545080714474</v>
       </c>
       <c r="AD3">
-        <v>425.6</v>
+        <v>420.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>425.6</v>
+        <v>420.9</v>
       </c>
       <c r="AG3">
-        <v>331</v>
+        <v>263.6</v>
       </c>
       <c r="AH3">
-        <v>0.6959934587080949</v>
+        <v>0.9018641525605313</v>
       </c>
       <c r="AI3">
-        <v>0.438130533250978</v>
+        <v>0.5178395669291339</v>
       </c>
       <c r="AJ3">
-        <v>0.6403559682723932</v>
+        <v>0.8519715578539108</v>
       </c>
       <c r="AK3">
-        <v>0.3775091240875912</v>
+        <v>0.4021357742181541</v>
       </c>
       <c r="AL3">
         <v>0</v>
